--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_14_19.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_14_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>549286.3892877942</v>
+        <v>590949.7132884416</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12433754.73901463</v>
+        <v>12515698.8879799</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6542240.186367736</v>
+        <v>7504991.361261604</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9509111.683512488</v>
+        <v>9033329.15167401</v>
       </c>
     </row>
     <row r="11">
@@ -658,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>153.8072380324131</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>232.2791855053264</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>11.36529914368137</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -721,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
     </row>
     <row r="3">
@@ -749,7 +749,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>138.4015718373192</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -791,22 +791,22 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8409875848768</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>165.1725371760945</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>187.5255871663198</v>
       </c>
     </row>
     <row r="4">
@@ -816,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>23.43375830553086</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,28 +861,28 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>3.343082173845815</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>138.3956966967178</v>
       </c>
       <c r="T4" t="n">
-        <v>179.1218489843614</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="W4" t="n">
-        <v>263.7138800015062</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -907,10 +907,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="G5" t="n">
-        <v>412.2818458970816</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>11.36529914368134</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>153.807238032413</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1039815783922</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>223.3094774101498</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -980,16 +980,16 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>135.7271976526644</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1022,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>15.40229248514474</v>
       </c>
       <c r="S6" t="n">
-        <v>141.660745107507</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T6" t="n">
-        <v>193.6498268080145</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="U6" t="n">
-        <v>176.5061376688734</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>187.5255871663198</v>
       </c>
     </row>
     <row r="7">
@@ -1053,22 +1053,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>116.3459545452057</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.6359113765081</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1098,31 +1098,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>3.343082173845801</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>200.4014587515235</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>222.1557535054015</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>161.8294550022487</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>187.5255871663198</v>
       </c>
     </row>
     <row r="8">
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>130.9356567043871</v>
       </c>
       <c r="C8" t="n">
-        <v>323.8388427438209</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1147,10 +1147,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1211,28 +1211,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>135.3343964518635</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83156789269626</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705012</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,22 +1259,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S9" t="n">
-        <v>134.3646350838588</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T9" t="n">
-        <v>192.0665623188214</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8092030868072</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>25.96720907315528</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>187.9080338835429</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>103.3387326418235</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1369,19 +1369,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>312.2615252432932</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>37.82173727365953</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>410.9217256534534</v>
@@ -1423,22 +1423,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1466,10 +1466,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,10 +1496,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T12" t="n">
         <v>190.7165703189231</v>
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>36.21541357488752</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1542,13 +1542,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>219.5489492761692</v>
@@ -1587,13 +1587,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>19.18789823326482</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1606,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>40.32753059712314</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,22 +1660,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>98.06558468344888</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1703,10 +1703,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1764,22 +1764,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>24.01006515217569</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>105.3000236223692</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1833,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1843,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>175.0602991046318</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>174.6258305008479</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>203.9179701396201</v>
@@ -1906,10 +1906,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2013,10 +2013,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>89.48285758192205</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>94.35006384922693</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2089,19 +2089,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>36.34690181272143</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>220.794483602152</v>
       </c>
       <c r="G20" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2177,10 +2177,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.8172186824772</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734084892</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2238,22 +2238,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>78.58151650834208</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
@@ -2307,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>115.6924017785686</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2317,10 +2317,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2329,10 +2329,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>157.0277966611976</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
         <v>294.6077643873205</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>206.1807275362186</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2475,22 +2475,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>163.6898441249713</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>10.52978017117744</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2557,25 +2557,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>85.17289288835215</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2608,13 +2608,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
-        <v>326.5167014968006</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2623,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2654,7 +2654,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2727,7 +2727,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2778,10 +2778,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>121.2877059169215</v>
       </c>
       <c r="Y28" t="n">
-        <v>10.20389322926706</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2794,10 +2794,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2809,7 +2809,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2848,19 +2848,19 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>231.6914504779443</v>
       </c>
       <c r="X29" t="n">
-        <v>139.4934596743391</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2891,7 +2891,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247723</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2949,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>27.87052325606774</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>90.57445924393058</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
@@ -3009,16 +3009,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>150.9066036119075</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3046,7 +3046,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>58.92805047992017</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3088,16 +3088,16 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3195,13 +3195,13 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>42.01201317445354</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>114.4746605491558</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
         <v>286.2118382056129</v>
@@ -3268,22 +3268,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>162.3088034162341</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>31.37046952385545</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -3319,19 +3319,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>219.5489492761692</v>
@@ -3483,16 +3483,16 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>171.7647334826869</v>
+        <v>130.3899231758519</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3508,7 +3508,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3556,16 +3556,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>120.608807415961</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>85.85883363046952</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3711,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>120.4528780263472</v>
+        <v>164.2540732785633</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3742,10 +3742,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>140.1563188766236</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>267.7473854578238</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3754,13 +3754,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3793,16 +3793,16 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3900,19 +3900,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>173.626889274476</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>219.5489492761692</v>
@@ -3957,13 +3957,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>24.16503758854137</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3979,16 +3979,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>42.34070507092564</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>74.98619773129222</v>
       </c>
       <c r="G44" t="n">
         <v>410.9217256534534</v>
@@ -3997,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4073,10 +4073,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>163.6898441249713</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>114.4746605491554</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
         <v>286.2118382056129</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1054.855520006025</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C2" t="n">
-        <v>1054.855520006025</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D2" t="n">
-        <v>788.4778634388467</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E2" t="n">
-        <v>522.1002068716687</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F2" t="n">
-        <v>255.7225503044907</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G2" t="n">
-        <v>21.0971104001205</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H2" t="n">
-        <v>21.0971104001205</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I2" t="n">
-        <v>21.0971104001205</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917624</v>
+        <v>21.03371160678489</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052547</v>
+        <v>80.81213159058933</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515909</v>
+        <v>191.8743094079182</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030608</v>
+        <v>347.1218190644754</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991321</v>
+        <v>509.4952041123826</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358418</v>
+        <v>649.484525998558</v>
       </c>
       <c r="P2" t="n">
-        <v>1011.026904601763</v>
+        <v>734.4611726020262</v>
       </c>
       <c r="Q2" t="n">
-        <v>1054.855520006025</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="R2" t="n">
-        <v>1054.855520006025</v>
+        <v>738.6222485201465</v>
       </c>
       <c r="S2" t="n">
-        <v>1054.855520006025</v>
+        <v>738.6222485201465</v>
       </c>
       <c r="T2" t="n">
-        <v>1054.855520006025</v>
+        <v>738.6222485201465</v>
       </c>
       <c r="U2" t="n">
-        <v>1054.855520006025</v>
+        <v>738.6222485201465</v>
       </c>
       <c r="V2" t="n">
-        <v>1054.855520006025</v>
+        <v>738.6222485201465</v>
       </c>
       <c r="W2" t="n">
-        <v>1054.855520006025</v>
+        <v>549.2024635036619</v>
       </c>
       <c r="X2" t="n">
-        <v>1054.855520006025</v>
+        <v>359.7826784871772</v>
       </c>
       <c r="Y2" t="n">
-        <v>1054.855520006025</v>
+        <v>170.3628934706926</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>160.8966779125641</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C3" t="n">
-        <v>160.8966779125641</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D3" t="n">
-        <v>160.8966779125641</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E3" t="n">
-        <v>160.8966779125641</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F3" t="n">
-        <v>21.0971104001205</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G3" t="n">
-        <v>21.0971104001205</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H3" t="n">
-        <v>21.0971104001205</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I3" t="n">
-        <v>21.0971104001205</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J3" t="n">
-        <v>21.0971104001205</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K3" t="n">
-        <v>95.78113116957466</v>
+        <v>67.13418877024208</v>
       </c>
       <c r="L3" t="n">
-        <v>242.5255548298713</v>
+        <v>183.5548280772648</v>
       </c>
       <c r="M3" t="n">
-        <v>433.1262439263951</v>
+        <v>338.7690911140241</v>
       </c>
       <c r="N3" t="n">
-        <v>643.1802110290001</v>
+        <v>512.5000587546598</v>
       </c>
       <c r="O3" t="n">
-        <v>813.1187583557299</v>
+        <v>649.2101578476345</v>
       </c>
       <c r="P3" t="n">
-        <v>930.1763583891335</v>
+        <v>739.5989987017058</v>
       </c>
       <c r="Q3" t="n">
-        <v>1054.855520006025</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="R3" t="n">
-        <v>1054.855520006025</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="S3" t="n">
-        <v>1054.855520006025</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="T3" t="n">
-        <v>858.0464416374624</v>
+        <v>560.6825636487946</v>
       </c>
       <c r="U3" t="n">
-        <v>858.0464416374624</v>
+        <v>393.8416170062749</v>
       </c>
       <c r="V3" t="n">
-        <v>622.8943334057196</v>
+        <v>393.8416170062749</v>
       </c>
       <c r="W3" t="n">
-        <v>368.656976677518</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="X3" t="n">
-        <v>368.656976677518</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="Y3" t="n">
-        <v>160.8966779125641</v>
+        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>171.2137498124562</v>
+        <v>38.67250990818524</v>
       </c>
       <c r="C4" t="n">
-        <v>171.2137498124562</v>
+        <v>38.67250990818524</v>
       </c>
       <c r="D4" t="n">
-        <v>21.0971104001205</v>
+        <v>38.67250990818524</v>
       </c>
       <c r="E4" t="n">
-        <v>21.0971104001205</v>
+        <v>38.67250990818524</v>
       </c>
       <c r="F4" t="n">
-        <v>21.0971104001205</v>
+        <v>38.67250990818524</v>
       </c>
       <c r="G4" t="n">
-        <v>21.0971104001205</v>
+        <v>38.67250990818524</v>
       </c>
       <c r="H4" t="n">
-        <v>21.0971104001205</v>
+        <v>38.67250990818524</v>
       </c>
       <c r="I4" t="n">
-        <v>21.0971104001205</v>
+        <v>38.67250990818524</v>
       </c>
       <c r="J4" t="n">
-        <v>21.0971104001205</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287949</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="L4" t="n">
-        <v>316.708372655101</v>
+        <v>100.3335179349381</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375337</v>
+        <v>285.9838492295947</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227047</v>
+        <v>471.6341805242513</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075544</v>
+        <v>634.3723839608015</v>
       </c>
       <c r="P4" t="n">
-        <v>1048.360858816803</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="Q4" t="n">
-        <v>1054.855520006025</v>
+        <v>746.7254979846269</v>
       </c>
       <c r="R4" t="n">
-        <v>1054.855520006025</v>
+        <v>746.7254979846269</v>
       </c>
       <c r="S4" t="n">
-        <v>1054.855520006025</v>
+        <v>606.9318649576393</v>
       </c>
       <c r="T4" t="n">
-        <v>873.9243594157607</v>
+        <v>606.9318649576393</v>
       </c>
       <c r="U4" t="n">
-        <v>873.9243594157607</v>
+        <v>606.9318649576393</v>
       </c>
       <c r="V4" t="n">
-        <v>619.2398712098739</v>
+        <v>417.5120799411546</v>
       </c>
       <c r="W4" t="n">
-        <v>352.8622146426959</v>
+        <v>228.0922949246699</v>
       </c>
       <c r="X4" t="n">
-        <v>352.8622146426959</v>
+        <v>38.67250990818524</v>
       </c>
       <c r="Y4" t="n">
-        <v>352.8622146426959</v>
+        <v>38.67250990818524</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>861.2976501679161</v>
+        <v>393.8416170062749</v>
       </c>
       <c r="C5" t="n">
-        <v>861.2976501679161</v>
+        <v>393.8416170062749</v>
       </c>
       <c r="D5" t="n">
-        <v>861.2976501679161</v>
+        <v>393.8416170062749</v>
       </c>
       <c r="E5" t="n">
-        <v>861.2976501679161</v>
+        <v>393.8416170062749</v>
       </c>
       <c r="F5" t="n">
-        <v>450.3117453783085</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="G5" t="n">
-        <v>33.86543639135742</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H5" t="n">
-        <v>33.86543639135742</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I5" t="n">
-        <v>33.86543639135742</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J5" t="n">
-        <v>108.4604468780282</v>
+        <v>21.03371160678495</v>
       </c>
       <c r="K5" t="n">
-        <v>270.99754908187</v>
+        <v>80.81213159058944</v>
       </c>
       <c r="L5" t="n">
-        <v>509.5409587373997</v>
+        <v>191.8743094079183</v>
       </c>
       <c r="M5" t="n">
-        <v>806.6359018176501</v>
+        <v>347.1218190644749</v>
       </c>
       <c r="N5" t="n">
-        <v>1113.151960058972</v>
+        <v>509.4952041123823</v>
       </c>
       <c r="O5" t="n">
-        <v>1389.2511208367</v>
+        <v>649.4845259985577</v>
       </c>
       <c r="P5" t="n">
-        <v>1590.394365921692</v>
+        <v>734.4611726020261</v>
       </c>
       <c r="Q5" t="n">
-        <v>1693.271819567871</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="R5" t="n">
-        <v>1693.271819567871</v>
+        <v>738.6222485201465</v>
       </c>
       <c r="S5" t="n">
-        <v>1693.271819567871</v>
+        <v>583.2614020227596</v>
       </c>
       <c r="T5" t="n">
-        <v>1693.271819567871</v>
+        <v>583.2614020227596</v>
       </c>
       <c r="U5" t="n">
-        <v>1439.631434135151</v>
+        <v>583.2614020227596</v>
       </c>
       <c r="V5" t="n">
-        <v>1439.631434135151</v>
+        <v>583.2614020227596</v>
       </c>
       <c r="W5" t="n">
-        <v>1086.862778865037</v>
+        <v>393.8416170062749</v>
       </c>
       <c r="X5" t="n">
-        <v>1086.862778865037</v>
+        <v>393.8416170062749</v>
       </c>
       <c r="Y5" t="n">
-        <v>861.2976501679161</v>
+        <v>393.8416170062749</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>479.1354805051999</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C6" t="n">
-        <v>479.1354805051999</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D6" t="n">
-        <v>330.2010708439486</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E6" t="n">
-        <v>170.9636158384931</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F6" t="n">
-        <v>170.9636158384931</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G6" t="n">
-        <v>33.86543639135742</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H6" t="n">
-        <v>33.86543639135742</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I6" t="n">
-        <v>33.86543639135742</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J6" t="n">
-        <v>59.47586665324469</v>
+        <v>15.00204697330516</v>
       </c>
       <c r="K6" t="n">
-        <v>181.4029958650503</v>
+        <v>67.13418877024171</v>
       </c>
       <c r="L6" t="n">
-        <v>391.6716089877857</v>
+        <v>183.5548280772645</v>
       </c>
       <c r="M6" t="n">
-        <v>656.4020309445274</v>
+        <v>338.7690911140239</v>
       </c>
       <c r="N6" t="n">
-        <v>942.5477243562559</v>
+        <v>512.5000587546597</v>
       </c>
       <c r="O6" t="n">
-        <v>1182.095335530454</v>
+        <v>649.2101578476344</v>
       </c>
       <c r="P6" t="n">
-        <v>1601.180110873502</v>
+        <v>739.5989987017058</v>
       </c>
       <c r="Q6" t="n">
-        <v>1693.078019232584</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="R6" t="n">
-        <v>1693.271819567871</v>
+        <v>734.5444774681633</v>
       </c>
       <c r="S6" t="n">
-        <v>1550.180157843116</v>
+        <v>583.2614020227596</v>
       </c>
       <c r="T6" t="n">
-        <v>1354.574272178455</v>
+        <v>393.8416170062749</v>
       </c>
       <c r="U6" t="n">
-        <v>1176.285244230098</v>
+        <v>393.8416170062749</v>
       </c>
       <c r="V6" t="n">
-        <v>941.1331359983553</v>
+        <v>393.8416170062749</v>
       </c>
       <c r="W6" t="n">
-        <v>686.8957792701538</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="X6" t="n">
-        <v>686.8957792701538</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="Y6" t="n">
-        <v>479.1354805051999</v>
+        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>466.5956524970595</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C7" t="n">
-        <v>466.5956524970595</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D7" t="n">
-        <v>349.074486289781</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E7" t="n">
-        <v>349.074486289781</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F7" t="n">
-        <v>202.1845387918707</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G7" t="n">
-        <v>33.86543639135742</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H7" t="n">
-        <v>33.86543639135742</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I7" t="n">
-        <v>33.86543639135742</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J7" t="n">
-        <v>36.28512133652218</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K7" t="n">
-        <v>170.0982437128602</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="L7" t="n">
-        <v>396.8594047119594</v>
+        <v>187.8896250884407</v>
       </c>
       <c r="M7" t="n">
-        <v>646.3363778191548</v>
+        <v>373.5399563830973</v>
       </c>
       <c r="N7" t="n">
-        <v>895.3159625361666</v>
+        <v>559.1902876777539</v>
       </c>
       <c r="O7" t="n">
-        <v>1109.272612021382</v>
+        <v>721.9284911143041</v>
       </c>
       <c r="P7" t="n">
-        <v>1268.828805580468</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="Q7" t="n">
-        <v>1295.862163397016</v>
+        <v>746.7254979846269</v>
       </c>
       <c r="R7" t="n">
-        <v>1295.862163397016</v>
+        <v>746.7254979846269</v>
       </c>
       <c r="S7" t="n">
-        <v>1093.436447486386</v>
+        <v>746.7254979846269</v>
       </c>
       <c r="T7" t="n">
-        <v>869.0366964708294</v>
+        <v>746.7254979846269</v>
       </c>
       <c r="U7" t="n">
-        <v>869.0366964708294</v>
+        <v>557.3057129681423</v>
       </c>
       <c r="V7" t="n">
-        <v>869.0366964708294</v>
+        <v>367.8859279516577</v>
       </c>
       <c r="W7" t="n">
-        <v>869.0366964708294</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="X7" t="n">
-        <v>869.0366964708294</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="Y7" t="n">
-        <v>648.2441173272993</v>
+        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>736.6224273402293</v>
+        <v>553.8524235344764</v>
       </c>
       <c r="C8" t="n">
-        <v>409.5124851747536</v>
+        <v>553.8524235344764</v>
       </c>
       <c r="D8" t="n">
-        <v>51.24678656800311</v>
+        <v>553.8524235344764</v>
       </c>
       <c r="E8" t="n">
-        <v>51.24678656800311</v>
+        <v>553.8524235344764</v>
       </c>
       <c r="F8" t="n">
-        <v>51.24678656800311</v>
+        <v>553.8524235344764</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800311</v>
+        <v>287.4747669672984</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800311</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362819</v>
+        <v>49.28269087917585</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>142.2640879052541</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872915</v>
+        <v>294.5174947515907</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>495.5981834030601</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230817</v>
+        <v>704.5463761991316</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.22848474084</v>
+        <v>888.5149683358413</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>1011.026904601763</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926626</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="T8" t="n">
-        <v>2437.640120926626</v>
+        <v>686.1106626298169</v>
       </c>
       <c r="U8" t="n">
-        <v>2184.059060190806</v>
+        <v>686.1106626298169</v>
       </c>
       <c r="V8" t="n">
-        <v>1852.996172847235</v>
+        <v>686.1106626298169</v>
       </c>
       <c r="W8" t="n">
-        <v>1500.227517577121</v>
+        <v>686.1106626298169</v>
       </c>
       <c r="X8" t="n">
-        <v>1126.761759316041</v>
+        <v>686.1106626298169</v>
       </c>
       <c r="Y8" t="n">
-        <v>736.6224273402293</v>
+        <v>686.1106626298169</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966389</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155119</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F9" t="n">
-        <v>302.14468917569</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182524</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057898</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K9" t="n">
-        <v>684.9695361605191</v>
+        <v>192.1295835699341</v>
       </c>
       <c r="L9" t="n">
-        <v>979.6730931919908</v>
+        <v>338.8740072302309</v>
       </c>
       <c r="M9" t="n">
-        <v>1342.935112151211</v>
+        <v>529.4746963267547</v>
       </c>
       <c r="N9" t="n">
-        <v>1730.220240748156</v>
+        <v>739.5286634293598</v>
       </c>
       <c r="O9" t="n">
-        <v>2062.290675924318</v>
+        <v>909.4672107560896</v>
       </c>
       <c r="P9" t="n">
-        <v>2309.473409756615</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R9" t="n">
-        <v>2562.339328400155</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S9" t="n">
-        <v>2426.617474780096</v>
+        <v>887.8833378166544</v>
       </c>
       <c r="T9" t="n">
-        <v>2232.610846175226</v>
+        <v>691.074259448092</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>462.9384134849055</v>
       </c>
       <c r="V9" t="n">
-        <v>1769.368633815395</v>
+        <v>462.9384134849055</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087194</v>
+        <v>436.7089093706072</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>228.8574091650744</v>
       </c>
       <c r="Y9" t="n">
-        <v>1099.519478116707</v>
+        <v>21.09711040012049</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>51.24678656800311</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="C10" t="n">
-        <v>51.24678656800311</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="D10" t="n">
-        <v>51.24678656800311</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E10" t="n">
-        <v>51.24678656800311</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F10" t="n">
-        <v>51.24678656800311</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800311</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800311</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312202</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020476</v>
+        <v>126.4133765287944</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>316.7083726551007</v>
       </c>
       <c r="M10" t="n">
-        <v>824.219460709659</v>
+        <v>527.7368878375333</v>
       </c>
       <c r="N10" t="n">
-        <v>1123.088724245823</v>
+        <v>739.1822330227044</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>918.469937207554</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1048.360858816803</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074498</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074498</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="S10" t="n">
-        <v>1439.817372234359</v>
+        <v>736.256897008846</v>
       </c>
       <c r="T10" t="n">
-        <v>1216.838891429094</v>
+        <v>736.256897008846</v>
       </c>
       <c r="U10" t="n">
-        <v>927.720553932932</v>
+        <v>736.256897008846</v>
       </c>
       <c r="V10" t="n">
-        <v>673.0360657270452</v>
+        <v>736.256897008846</v>
       </c>
       <c r="W10" t="n">
-        <v>383.6188956900846</v>
+        <v>469.8792404416679</v>
       </c>
       <c r="X10" t="n">
-        <v>155.6293447920672</v>
+        <v>241.8896895436506</v>
       </c>
       <c r="Y10" t="n">
-        <v>51.24678656800311</v>
+        <v>21.09711040012049</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1952.040104645722</v>
+        <v>1274.539111149741</v>
       </c>
       <c r="C11" t="n">
-        <v>1636.624422581789</v>
+        <v>905.5765942093296</v>
       </c>
       <c r="D11" t="n">
-        <v>1278.358723975039</v>
+        <v>867.3728191854311</v>
       </c>
       <c r="E11" t="n">
-        <v>892.5704713767946</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="F11" t="n">
         <v>481.5845665871869</v>
       </c>
       <c r="G11" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J11" t="n">
         <v>255.3912473912087</v>
       </c>
       <c r="K11" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S11" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T11" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U11" t="n">
-        <v>3009.337405520487</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V11" t="n">
-        <v>2678.274518176916</v>
+        <v>2424.744041450755</v>
       </c>
       <c r="W11" t="n">
-        <v>2325.505862906802</v>
+        <v>2424.744041450755</v>
       </c>
       <c r="X11" t="n">
-        <v>1952.040104645722</v>
+        <v>2051.278283189675</v>
       </c>
       <c r="Y11" t="n">
-        <v>1952.040104645722</v>
+        <v>1661.138951213863</v>
       </c>
     </row>
     <row r="12">
@@ -5096,70 +5096,70 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064585</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031478</v>
+        <v>398.453584903148</v>
       </c>
       <c r="L12" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U12" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X12" t="n">
         <v>1317.519490266131</v>
@@ -5175,43 +5175,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>810.3754302374103</v>
+        <v>994.2880032601528</v>
       </c>
       <c r="C13" t="n">
-        <v>641.4392473095035</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D13" t="n">
-        <v>604.8580214762837</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E13" t="n">
-        <v>456.9449278938906</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F13" t="n">
-        <v>310.0549803959803</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="G13" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H13" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J13" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L13" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N13" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O13" t="n">
         <v>1617.076751502319</v>
@@ -5220,31 +5220,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q13" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R13" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S13" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T13" t="n">
-        <v>1513.842048484845</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U13" t="n">
-        <v>1513.842048484845</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="V13" t="n">
-        <v>1259.157560278958</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="W13" t="n">
-        <v>1259.157560278958</v>
+        <v>1416.110762621059</v>
       </c>
       <c r="X13" t="n">
-        <v>1031.16800938094</v>
+        <v>1396.729047233923</v>
       </c>
       <c r="Y13" t="n">
-        <v>810.3754302374103</v>
+        <v>1175.936468090393</v>
       </c>
     </row>
     <row r="14">
@@ -5254,52 +5254,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1267.635416552713</v>
+        <v>1917.382287315189</v>
       </c>
       <c r="C14" t="n">
-        <v>1267.635416552713</v>
+        <v>1548.419770374778</v>
       </c>
       <c r="D14" t="n">
-        <v>909.3697179459625</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="E14" t="n">
-        <v>523.5814653477182</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F14" t="n">
-        <v>523.5814653477182</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G14" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H14" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K14" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
         <v>3325.60582160917</v>
@@ -5311,19 +5311,19 @@
         <v>3009.337405520487</v>
       </c>
       <c r="U14" t="n">
-        <v>2755.806928794323</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V14" t="n">
-        <v>2424.744041450752</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W14" t="n">
-        <v>2071.975386180638</v>
+        <v>2403.038273524209</v>
       </c>
       <c r="X14" t="n">
-        <v>1698.509627919558</v>
+        <v>2303.982127379311</v>
       </c>
       <c r="Y14" t="n">
-        <v>1308.370295943746</v>
+        <v>2303.982127379311</v>
       </c>
     </row>
     <row r="15">
@@ -5348,22 +5348,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H15" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J15" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5375,10 +5375,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R15" t="n">
         <v>2564.909189125856</v>
@@ -5412,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>848.0708164780106</v>
+        <v>469.8823635670449</v>
       </c>
       <c r="C16" t="n">
-        <v>679.1346335501037</v>
+        <v>469.8823635670449</v>
       </c>
       <c r="D16" t="n">
-        <v>529.0179941377679</v>
+        <v>319.7657241547091</v>
       </c>
       <c r="E16" t="n">
-        <v>381.1049005553748</v>
+        <v>319.7657241547091</v>
       </c>
       <c r="F16" t="n">
-        <v>234.2149530574644</v>
+        <v>172.8757766567988</v>
       </c>
       <c r="G16" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H16" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J16" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K16" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L16" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M16" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N16" t="n">
         <v>1317.747152581905</v>
@@ -5457,16 +5457,16 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q16" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R16" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S16" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T16" t="n">
-        <v>1705.527932658018</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U16" t="n">
         <v>1416.425065783662</v>
@@ -5475,13 +5475,13 @@
         <v>1161.740577577775</v>
       </c>
       <c r="W16" t="n">
-        <v>872.3234075408143</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="X16" t="n">
-        <v>872.3234075408143</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="Y16" t="n">
-        <v>872.3234075408143</v>
+        <v>651.5308283972846</v>
       </c>
     </row>
     <row r="17">
@@ -5491,31 +5491,31 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1295.236214140706</v>
+        <v>1594.601034732593</v>
       </c>
       <c r="C17" t="n">
-        <v>926.2736972002947</v>
+        <v>1225.638517792182</v>
       </c>
       <c r="D17" t="n">
-        <v>926.2736972002947</v>
+        <v>867.3728191854311</v>
       </c>
       <c r="E17" t="n">
-        <v>540.4854446020504</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="F17" t="n">
-        <v>364.0957168234162</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G17" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K17" t="n">
         <v>589.2106210810553</v>
@@ -5524,7 +5524,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
         <v>2120.555556060171</v>
@@ -5536,31 +5536,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T17" t="n">
-        <v>3009.337405520489</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U17" t="n">
-        <v>2755.806928794325</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V17" t="n">
-        <v>2424.744041450754</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W17" t="n">
-        <v>2071.97538618064</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="X17" t="n">
-        <v>2071.97538618064</v>
+        <v>2161.568951662578</v>
       </c>
       <c r="Y17" t="n">
-        <v>1681.836054204828</v>
+        <v>1771.429619686767</v>
       </c>
     </row>
     <row r="18">
@@ -5585,22 +5585,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K18" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>601.818521755047</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="C19" t="n">
-        <v>601.818521755047</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="D19" t="n">
-        <v>451.7018823427112</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E19" t="n">
-        <v>303.7887887603181</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F19" t="n">
-        <v>156.8988412624077</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J19" t="n">
         <v>111.634748879119</v>
@@ -5697,28 +5697,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R19" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S19" t="n">
-        <v>1837.464090846021</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T19" t="n">
-        <v>1837.464090846021</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U19" t="n">
-        <v>1548.361223971664</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V19" t="n">
-        <v>1293.676735765777</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W19" t="n">
-        <v>1004.259565728817</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X19" t="n">
-        <v>1004.259565728817</v>
+        <v>585.3344285704424</v>
       </c>
       <c r="Y19" t="n">
-        <v>783.4669865852867</v>
+        <v>364.5418494269122</v>
       </c>
     </row>
     <row r="20">
@@ -5728,31 +5728,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1698.50962791956</v>
+        <v>1771.418012197378</v>
       </c>
       <c r="C20" t="n">
-        <v>1329.547110979148</v>
+        <v>1402.455495256966</v>
       </c>
       <c r="D20" t="n">
-        <v>971.2814123723979</v>
+        <v>1044.189796650216</v>
       </c>
       <c r="E20" t="n">
-        <v>934.5673701373257</v>
+        <v>1044.189796650216</v>
       </c>
       <c r="F20" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389512</v>
       </c>
       <c r="G20" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839476</v>
       </c>
       <c r="H20" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K20" t="n">
         <v>589.2106210810557</v>
@@ -5764,40 +5764,40 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S20" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T20" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U20" t="n">
-        <v>2755.806928794325</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V20" t="n">
-        <v>2424.744041450754</v>
+        <v>2884.252265792694</v>
       </c>
       <c r="W20" t="n">
-        <v>2071.97538618064</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="X20" t="n">
-        <v>1698.50962791956</v>
+        <v>2158.0178522615</v>
       </c>
       <c r="Y20" t="n">
-        <v>1698.50962791956</v>
+        <v>2158.0178522615</v>
       </c>
     </row>
     <row r="21">
@@ -5807,37 +5807,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927777</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5846,13 +5846,13 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R21" t="n">
         <v>2564.909189125856</v>
@@ -5864,7 +5864,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V21" t="n">
         <v>1779.608347199865</v>
@@ -5873,10 +5873,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>382.1280466398576</v>
+        <v>590.8070661251681</v>
       </c>
       <c r="C22" t="n">
-        <v>382.1280466398576</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D22" t="n">
-        <v>382.1280466398576</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E22" t="n">
-        <v>234.2149530574645</v>
+        <v>213.4020639300937</v>
       </c>
       <c r="F22" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G22" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H22" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J22" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K22" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L22" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M22" t="n">
-        <v>976.3387758760405</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N22" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O22" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P22" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q22" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R22" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S22" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672846</v>
       </c>
       <c r="T22" t="n">
-        <v>1513.842048484845</v>
+        <v>1424.011591242372</v>
       </c>
       <c r="U22" t="n">
-        <v>1224.739181610489</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V22" t="n">
-        <v>970.0546934046018</v>
+        <v>880.2242361621287</v>
       </c>
       <c r="W22" t="n">
-        <v>680.6375233676413</v>
+        <v>590.8070661251681</v>
       </c>
       <c r="X22" t="n">
-        <v>680.6375233676413</v>
+        <v>590.8070661251681</v>
       </c>
       <c r="Y22" t="n">
-        <v>563.7765114700973</v>
+        <v>590.8070661251681</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1477.112184968822</v>
+        <v>1681.836054204826</v>
       </c>
       <c r="C23" t="n">
-        <v>1108.149668028411</v>
+        <v>1681.836054204826</v>
       </c>
       <c r="D23" t="n">
-        <v>749.8839694216604</v>
+        <v>1323.570355598076</v>
       </c>
       <c r="E23" t="n">
-        <v>364.0957168234162</v>
+        <v>937.7821029998315</v>
       </c>
       <c r="F23" t="n">
-        <v>364.0957168234162</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G23" t="n">
         <v>364.0957168234162</v>
       </c>
       <c r="H23" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I23" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O23" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q23" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R23" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S23" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T23" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U23" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V23" t="n">
-        <v>2424.744041450754</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W23" t="n">
-        <v>2071.97538618064</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X23" t="n">
-        <v>2071.97538618064</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="Y23" t="n">
-        <v>1863.712025032944</v>
+        <v>1681.836054204826</v>
       </c>
     </row>
     <row r="24">
@@ -6044,46 +6044,46 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C24" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D24" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E24" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F24" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G24" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I24" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J24" t="n">
-        <v>160.1893859228006</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K24" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L24" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M24" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N24" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O24" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P24" t="n">
         <v>2407.411984886741</v>
@@ -6101,7 +6101,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U24" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V24" t="n">
         <v>1779.608347199865</v>
@@ -6110,10 +6110,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X24" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y24" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="25">
@@ -6123,31 +6123,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>561.7003711548124</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="C25" t="n">
-        <v>392.7641882269055</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="D25" t="n">
-        <v>382.1280466398576</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="E25" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F25" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G25" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H25" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I25" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J25" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K25" t="n">
         <v>315.6219318279954</v>
@@ -6171,28 +6171,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R25" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S25" t="n">
-        <v>1837.464090846021</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T25" t="n">
-        <v>1615.697475415547</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U25" t="n">
-        <v>1326.59460854119</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V25" t="n">
-        <v>1071.910120335303</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W25" t="n">
-        <v>782.4929502983425</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X25" t="n">
-        <v>782.4929502983425</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y25" t="n">
-        <v>561.7003711548124</v>
+        <v>231.8553933260938</v>
       </c>
     </row>
     <row r="26">
@@ -6202,46 +6202,46 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1519.135572818019</v>
+        <v>921.7704558796265</v>
       </c>
       <c r="C26" t="n">
-        <v>1519.135572818019</v>
+        <v>552.8079389392149</v>
       </c>
       <c r="D26" t="n">
-        <v>1160.869874211268</v>
+        <v>194.5422403324644</v>
       </c>
       <c r="E26" t="n">
-        <v>775.0816216130238</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="F26" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="G26" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H26" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I26" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L26" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M26" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N26" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O26" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P26" t="n">
         <v>3018.302393296687</v>
@@ -6256,22 +6256,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T26" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U26" t="n">
-        <v>2961.784676410103</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V26" t="n">
-        <v>2631.969826413334</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W26" t="n">
-        <v>2279.20117114322</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X26" t="n">
-        <v>1905.73541288214</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y26" t="n">
-        <v>1905.73541288214</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="27">
@@ -6281,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C27" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D27" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E27" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F27" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G27" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H27" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I27" t="n">
         <v>66.51211643218343</v>
@@ -6338,7 +6338,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U27" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V27" t="n">
         <v>1779.608347199865</v>
@@ -6347,10 +6347,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X27" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y27" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="28">
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>680.3679798527295</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="C28" t="n">
-        <v>511.4317969248226</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="D28" t="n">
-        <v>361.3151575124869</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E28" t="n">
-        <v>213.4020639300938</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F28" t="n">
-        <v>66.51211643218343</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G28" t="n">
         <v>66.51211643218343</v>
@@ -6426,10 +6426,10 @@
         <v>872.3234075408147</v>
       </c>
       <c r="X28" t="n">
-        <v>872.3234075408147</v>
+        <v>749.810573281298</v>
       </c>
       <c r="Y28" t="n">
-        <v>862.0164446829692</v>
+        <v>529.0179941377679</v>
       </c>
     </row>
     <row r="29">
@@ -6439,40 +6439,40 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1944.904841306683</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="C29" t="n">
-        <v>1575.942324366272</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D29" t="n">
-        <v>1575.942324366272</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E29" t="n">
-        <v>1190.154071768027</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F29" t="n">
-        <v>779.1681669784198</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G29" t="n">
-        <v>364.0957168234162</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H29" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I29" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K29" t="n">
         <v>589.2106210810553</v>
       </c>
       <c r="L29" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M29" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N29" t="n">
         <v>2120.555556060171</v>
@@ -6487,28 +6487,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R29" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S29" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T29" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U29" t="n">
-        <v>3215.315153136266</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V29" t="n">
-        <v>3215.315153136266</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W29" t="n">
-        <v>2862.546497866151</v>
+        <v>2396.690020906991</v>
       </c>
       <c r="X29" t="n">
-        <v>2721.644013346617</v>
+        <v>2023.224262645911</v>
       </c>
       <c r="Y29" t="n">
-        <v>2331.504681370805</v>
+        <v>2023.224262645911</v>
       </c>
     </row>
     <row r="30">
@@ -6518,28 +6518,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C30" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D30" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E30" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F30" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G30" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I30" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J30" t="n">
         <v>160.1893859228007</v>
@@ -6575,7 +6575,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U30" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V30" t="n">
         <v>1779.608347199865</v>
@@ -6584,10 +6584,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X30" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y30" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="31">
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>844.171363847817</v>
+        <v>304.8914167017408</v>
       </c>
       <c r="C31" t="n">
-        <v>675.2351809199101</v>
+        <v>304.8914167017408</v>
       </c>
       <c r="D31" t="n">
-        <v>675.2351809199101</v>
+        <v>304.8914167017408</v>
       </c>
       <c r="E31" t="n">
-        <v>527.322087337517</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F31" t="n">
-        <v>380.4321398396066</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G31" t="n">
-        <v>212.7293032143256</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H31" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I31" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J31" t="n">
         <v>111.634748879119</v>
@@ -6648,25 +6648,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S31" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T31" t="n">
-        <v>1705.527932658019</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U31" t="n">
-        <v>1416.425065783662</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V31" t="n">
-        <v>1161.740577577775</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="W31" t="n">
-        <v>872.3234075408147</v>
+        <v>935.322011573528</v>
       </c>
       <c r="X31" t="n">
-        <v>872.3234075408147</v>
+        <v>707.3324606755107</v>
       </c>
       <c r="Y31" t="n">
-        <v>872.3234075408147</v>
+        <v>486.5398815319805</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2005.586939522201</v>
+        <v>2065.110222835252</v>
       </c>
       <c r="C32" t="n">
-        <v>1636.624422581789</v>
+        <v>1696.14770589484</v>
       </c>
       <c r="D32" t="n">
-        <v>1278.358723975039</v>
+        <v>1337.882007288089</v>
       </c>
       <c r="E32" t="n">
-        <v>892.5704713767946</v>
+        <v>952.0937546898451</v>
       </c>
       <c r="F32" t="n">
-        <v>481.5845665871869</v>
+        <v>541.1078499002376</v>
       </c>
       <c r="G32" t="n">
-        <v>66.51211643218343</v>
+        <v>126.0353997452341</v>
       </c>
       <c r="H32" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I32" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L32" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M32" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N32" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O32" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P32" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q32" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R32" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S32" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T32" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U32" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V32" t="n">
-        <v>2884.252265792696</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="W32" t="n">
-        <v>2531.483610522581</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="X32" t="n">
-        <v>2158.017852261502</v>
+        <v>2841.849394875185</v>
       </c>
       <c r="Y32" t="n">
-        <v>2158.017852261502</v>
+        <v>2451.710062899373</v>
       </c>
     </row>
     <row r="33">
@@ -6770,22 +6770,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G33" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I33" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J33" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K33" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L33" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M33" t="n">
         <v>1212.428070438129</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>182.143086683856</v>
+        <v>423.5412774992673</v>
       </c>
       <c r="C34" t="n">
-        <v>182.143086683856</v>
+        <v>423.5412774992673</v>
       </c>
       <c r="D34" t="n">
-        <v>182.143086683856</v>
+        <v>423.5412774992673</v>
       </c>
       <c r="E34" t="n">
-        <v>182.143086683856</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F34" t="n">
-        <v>182.143086683856</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G34" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H34" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I34" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J34" t="n">
         <v>111.634748879119</v>
@@ -6882,28 +6882,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R34" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S34" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T34" t="n">
-        <v>1645.778206672847</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U34" t="n">
-        <v>1356.675339798491</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V34" t="n">
-        <v>1101.990851592604</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W34" t="n">
-        <v>812.5736815556431</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="X34" t="n">
-        <v>584.5841306576258</v>
+        <v>644.3338566427974</v>
       </c>
       <c r="Y34" t="n">
-        <v>363.7915515140957</v>
+        <v>423.5412774992673</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1295.236214140706</v>
+        <v>1712.341567565137</v>
       </c>
       <c r="C35" t="n">
-        <v>1295.236214140706</v>
+        <v>1343.379050624726</v>
       </c>
       <c r="D35" t="n">
-        <v>936.9705155339559</v>
+        <v>985.1133520179753</v>
       </c>
       <c r="E35" t="n">
-        <v>551.1822629357116</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="F35" t="n">
-        <v>140.196358146104</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G35" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H35" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S35" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T35" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U35" t="n">
-        <v>2755.806928794325</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V35" t="n">
-        <v>2424.744041450754</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="W35" t="n">
-        <v>2071.97538618064</v>
+        <v>2862.546497866151</v>
       </c>
       <c r="X35" t="n">
-        <v>2071.97538618064</v>
+        <v>2489.080739605071</v>
       </c>
       <c r="Y35" t="n">
-        <v>1681.836054204828</v>
+        <v>2098.941407629259</v>
       </c>
     </row>
     <row r="36">
@@ -7007,16 +7007,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K36" t="n">
         <v>398.4535849031479</v>
@@ -7083,16 +7083,16 @@
         <v>381.1049005553748</v>
       </c>
       <c r="F37" t="n">
-        <v>234.2149530574645</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G37" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J37" t="n">
         <v>111.634748879119</v>
@@ -7119,25 +7119,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R37" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S37" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T37" t="n">
-        <v>1424.011591242373</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U37" t="n">
-        <v>1424.011591242373</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="V37" t="n">
-        <v>1424.011591242373</v>
+        <v>1450.843444452132</v>
       </c>
       <c r="W37" t="n">
-        <v>1424.011591242373</v>
+        <v>1161.426274415171</v>
       </c>
       <c r="X37" t="n">
-        <v>1250.51186045178</v>
+        <v>1029.71928130825</v>
       </c>
       <c r="Y37" t="n">
         <v>1029.71928130825</v>
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1647.321240915451</v>
+        <v>1590.514489367197</v>
       </c>
       <c r="C38" t="n">
-        <v>1278.358723975039</v>
+        <v>1221.551972426786</v>
       </c>
       <c r="D38" t="n">
-        <v>1278.358723975039</v>
+        <v>863.2862738200351</v>
       </c>
       <c r="E38" t="n">
-        <v>892.5704713767946</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F38" t="n">
-        <v>481.5845665871869</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G38" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810571</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S38" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T38" t="n">
-        <v>3215.315153136266</v>
+        <v>3093.488074938325</v>
       </c>
       <c r="U38" t="n">
-        <v>3215.315153136266</v>
+        <v>3093.488074938325</v>
       </c>
       <c r="V38" t="n">
-        <v>2884.252265792696</v>
+        <v>3093.488074938325</v>
       </c>
       <c r="W38" t="n">
-        <v>2797.526171216464</v>
+        <v>2740.71941966821</v>
       </c>
       <c r="X38" t="n">
-        <v>2424.060412955384</v>
+        <v>2367.25366140713</v>
       </c>
       <c r="Y38" t="n">
-        <v>2033.921080979572</v>
+        <v>1977.114329431319</v>
       </c>
     </row>
     <row r="39">
@@ -7244,22 +7244,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G39" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
@@ -7320,16 +7320,16 @@
         <v>381.1049005553748</v>
       </c>
       <c r="F40" t="n">
-        <v>234.2149530574645</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G40" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H40" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J40" t="n">
         <v>111.634748879119</v>
@@ -7359,25 +7359,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S40" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T40" t="n">
-        <v>1513.842048484845</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U40" t="n">
-        <v>1513.842048484845</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V40" t="n">
-        <v>1259.157560278958</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="W40" t="n">
-        <v>969.7403902419976</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="X40" t="n">
-        <v>848.0708164780106</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y40" t="n">
-        <v>848.0708164780106</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1363.124011696102</v>
+        <v>1590.807527238422</v>
       </c>
       <c r="C41" t="n">
-        <v>1221.551972426786</v>
+        <v>1590.807527238422</v>
       </c>
       <c r="D41" t="n">
-        <v>863.2862738200351</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E41" t="n">
-        <v>477.498021221791</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F41" t="n">
-        <v>66.51211643218343</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G41" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S41" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T41" t="n">
-        <v>3119.628073993394</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U41" t="n">
-        <v>2866.09759726723</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V41" t="n">
-        <v>2866.09759726723</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="W41" t="n">
-        <v>2513.328941997116</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="X41" t="n">
-        <v>2139.863183736036</v>
+        <v>2367.546699278356</v>
       </c>
       <c r="Y41" t="n">
-        <v>1749.723851760224</v>
+        <v>1977.407367302544</v>
       </c>
     </row>
     <row r="42">
@@ -7481,16 +7481,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K42" t="n">
         <v>398.4535849031479</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>66.51211643218343</v>
+        <v>700.1577228956174</v>
       </c>
       <c r="C43" t="n">
-        <v>66.51211643218343</v>
+        <v>531.2215399677106</v>
       </c>
       <c r="D43" t="n">
-        <v>66.51211643218343</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="E43" t="n">
-        <v>66.51211643218343</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F43" t="n">
-        <v>66.51211643218343</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G43" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J43" t="n">
         <v>111.634748879119</v>
@@ -7596,25 +7596,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S43" t="n">
-        <v>1751.913851851648</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T43" t="n">
-        <v>1530.147236421175</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U43" t="n">
-        <v>1241.044369546818</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V43" t="n">
-        <v>986.3598813409312</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="W43" t="n">
-        <v>696.9427113039706</v>
+        <v>1127.007895746702</v>
       </c>
       <c r="X43" t="n">
-        <v>468.9531604059532</v>
+        <v>1102.598766869387</v>
       </c>
       <c r="Y43" t="n">
-        <v>248.1605812624231</v>
+        <v>881.8061877258572</v>
       </c>
     </row>
     <row r="44">
@@ -7624,16 +7624,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1363.124011696101</v>
+        <v>1712.341567565137</v>
       </c>
       <c r="C44" t="n">
-        <v>1320.35562273557</v>
+        <v>1343.379050624725</v>
       </c>
       <c r="D44" t="n">
-        <v>1320.35562273557</v>
+        <v>985.1133520179749</v>
       </c>
       <c r="E44" t="n">
-        <v>934.5673701373257</v>
+        <v>599.3250994197306</v>
       </c>
       <c r="F44" t="n">
         <v>523.5814653477182</v>
@@ -7645,16 +7645,16 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I44" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K44" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
         <v>1573.776739001388</v>
@@ -7669,31 +7669,31 @@
         <v>3018.302393296685</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R44" t="n">
         <v>3325.60582160917</v>
       </c>
       <c r="S44" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T44" t="n">
-        <v>3119.628073993392</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U44" t="n">
-        <v>2866.097597267229</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V44" t="n">
-        <v>2866.097597267229</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="W44" t="n">
-        <v>2513.328941997114</v>
+        <v>2862.54649786615</v>
       </c>
       <c r="X44" t="n">
-        <v>2139.863183736034</v>
+        <v>2489.08073960507</v>
       </c>
       <c r="Y44" t="n">
-        <v>1749.723851760223</v>
+        <v>2098.941407629259</v>
       </c>
     </row>
     <row r="45">
@@ -7703,34 +7703,34 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G45" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I45" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L45" t="n">
         <v>765.151745215813</v>
@@ -7745,7 +7745,7 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q45" t="n">
         <v>2565.053542533341</v>
@@ -7760,7 +7760,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V45" t="n">
         <v>1779.608347199865</v>
@@ -7769,10 +7769,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="46">
@@ -7782,40 +7782,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="C46" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="D46" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="E46" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F46" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G46" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H46" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I46" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J46" t="n">
         <v>111.6347488791189</v>
       </c>
       <c r="K46" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L46" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M46" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N46" t="n">
         <v>1317.747152581905</v>
@@ -7827,31 +7827,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q46" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R46" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S46" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T46" t="n">
-        <v>1530.147236421175</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U46" t="n">
-        <v>1241.044369546818</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V46" t="n">
-        <v>986.3598813409312</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W46" t="n">
-        <v>696.9427113039706</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X46" t="n">
-        <v>468.9531604059532</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y46" t="n">
-        <v>248.1605812624231</v>
+        <v>231.8553933260938</v>
       </c>
     </row>
   </sheetData>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761153</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418266</v>
+        <v>15.37922103265842</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8078,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>97.3216690912726</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8139,16 +8139,16 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7437663446525</v>
+        <v>14.10430989402855</v>
       </c>
       <c r="L4" t="n">
-        <v>162.4747015415544</v>
+        <v>74.0341892652893</v>
       </c>
       <c r="M4" t="n">
-        <v>178.5096609094456</v>
+        <v>171.4142040457083</v>
       </c>
       <c r="N4" t="n">
-        <v>171.8177168444618</v>
+        <v>163.8604018711116</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>25.82445471157925</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>15.37922103265839</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8312,10 +8312,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>248.6462269985644</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>26.48617644860182</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8376,22 +8376,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K7" t="n">
-        <v>106.7437663446525</v>
+        <v>14.10430989402852</v>
       </c>
       <c r="L7" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M7" t="n">
-        <v>178.5096609094456</v>
+        <v>171.4142040457083</v>
       </c>
       <c r="N7" t="n">
-        <v>171.8177168444618</v>
+        <v>163.8604018711115</v>
       </c>
       <c r="O7" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P7" t="n">
-        <v>135.0065633140411</v>
+        <v>46.56605103777586</v>
       </c>
       <c r="Q7" t="n">
         <v>65.34295837775146</v>
@@ -8476,7 +8476,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>60.51967546761151</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>2.051220519418237</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>97.32166909127218</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8552,10 +8552,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>138.9393975111057</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154985</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>1.388111847688833e-12</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -22546,28 +22546,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>228.9266036310675</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>90.96916161917676</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>118.2164900707556</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>143.1621657402052</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>180.5549891403836</v>
+        <v>413.097833230058</v>
       </c>
       <c r="H2" t="n">
-        <v>314.193632629268</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3066195468971</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22597,25 +22597,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032232</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1481678782825</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>161.7153815510932</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>182.2055135121492</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>198.7123514897338</v>
       </c>
     </row>
     <row r="3">
@@ -22637,16 +22637,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>6.667640556064725</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0227195864234</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120976</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>43.9218040015056</v>
+        <v>48.77881175550658</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22673,28 +22673,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527768</v>
+        <v>26.91122581714239</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>7.884010625681441</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>60.69123123399646</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>64.1693959945998</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>18.15710861098455</v>
       </c>
     </row>
     <row r="4">
@@ -22704,13 +22704,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -22719,16 +22719,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8836670385466</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3821593358568</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1505735248085</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888209</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22752,25 +22752,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7191642435938</v>
+        <v>68.38455909877845</v>
       </c>
       <c r="T4" t="n">
-        <v>44.09249689520442</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2586305026775</v>
+        <v>286.2650814934503</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>64.61205615750819</v>
       </c>
       <c r="W4" t="n">
-        <v>22.8091183350848</v>
+        <v>98.99741117027119</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>38.18406822271734</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -22795,16 +22795,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>219.3504585753916</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>225.5722460637382</v>
       </c>
       <c r="H5" t="n">
-        <v>308.5370958323768</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I5" t="n">
-        <v>94.01296546539852</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22834,25 +22834,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>140.1815018398513</v>
+        <v>4.968575157640089</v>
       </c>
       <c r="T5" t="n">
-        <v>209.8718965061022</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>161.7153815510932</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>162.9284612459037</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22868,22 +22868,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H6" t="n">
-        <v>96.62520054253649</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I6" t="n">
-        <v>33.74703566813361</v>
+        <v>48.77881175550657</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22910,28 +22910,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>11.50893333199764</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>7.884010625681441</v>
       </c>
       <c r="U6" t="n">
-        <v>49.32890760219706</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>64.1693959945998</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>18.15710861098455</v>
       </c>
     </row>
     <row r="7">
@@ -22941,31 +22941,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>32.26951847300666</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H7" t="n">
-        <v>150.1793862679148</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I7" t="n">
-        <v>114.6998850700519</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>23.43375830553084</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22989,28 +22989,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>116.3646073887346</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>206.7802557954962</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2451165574754</v>
+        <v>98.73949432713047</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>64.61205615750819</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>124.6935433343423</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>31.05906618577498</v>
       </c>
     </row>
     <row r="8">
@@ -23020,13 +23020,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>251.7981849590935</v>
       </c>
       <c r="C8" t="n">
-        <v>41.43404902718669</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -23035,13 +23035,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>149.1202946442039</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>50.47975262776185</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247044</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23074,22 +23074,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23099,28 +23099,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23159,10 +23159,10 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>225.7277740877643</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -23193,16 +23193,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23226,28 +23226,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>16.81113036005087</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2586305026775</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>22.80911833508486</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>115.2459207102713</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -23257,19 +23257,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>53.01136652771436</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>316.8613043470234</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23278,7 +23278,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23314,19 +23314,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>112.4000594433248</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23475,13 +23475,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>206.5217571557723</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23494,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>342.4063110663574</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23554,16 +23554,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>271.6655159950201</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>155.8219150297616</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>60.72578463665903</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
@@ -23721,7 +23721,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23731,25 +23731,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>207.6735425588488</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>232.2502152408636</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292595</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23794,10 +23794,10 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23901,10 +23901,10 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>76.54295067710618</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>131.3595915398102</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23977,16 +23977,16 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>345.5834682595403</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>186.0815621395594</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24022,10 +24022,10 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>88.66530459028576</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>102.8922515735262</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24205,10 +24205,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -24217,10 +24217,10 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>249.8482490805138</v>
       </c>
       <c r="G23" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -24274,7 +24274,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>180.057211119835</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24363,22 +24363,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>16.14213605696597</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>138.0856928470349</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24445,25 +24445,25 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>296.7574771839096</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24496,13 +24496,13 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>1.235556973334269</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24511,7 +24511,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24600,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24615,7 +24615,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>104.4219494721156</v>
       </c>
       <c r="Y28" t="n">
-        <v>208.3807601228277</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24682,10 +24682,10 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24697,7 +24697,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292595</v>
@@ -24736,19 +24736,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>117.5495182394687</v>
       </c>
       <c r="X29" t="n">
-        <v>230.2376410041299</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24837,25 +24837,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>151.9614569258696</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>55.85950340263859</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
         <v>96.35242040983809</v>
@@ -24888,7 +24888,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24897,16 +24897,16 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>231.8272380515731</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24934,7 +24934,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>294.6077643873205</v>
+        <v>235.6797139074003</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292595</v>
@@ -24976,16 +24976,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25083,13 +25083,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>104.4219494721156</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>51.55114770987244</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25156,22 +25156,22 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>219.6215666560277</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>379.551256129598</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25207,19 +25207,19 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25371,16 +25371,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>53.94492190635026</v>
+        <v>95.31973221318526</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25396,7 +25396,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25405,7 +25405,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
         <v>294.6077643873205</v>
@@ -25444,16 +25444,16 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>83.30916272365914</v>
       </c>
       <c r="U38" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>263.3821350869435</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25599,25 +25599,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>105.25677736269</v>
+        <v>61.45558211047381</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25630,10 +25630,10 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>225.116572894384</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>86.93565616285912</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25642,13 +25642,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25681,16 +25681,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25788,19 +25788,19 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
@@ -25836,7 +25836,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>16.14213605696594</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25845,13 +25845,13 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>201.5446178004958</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25867,16 +25867,16 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>322.9321867000819</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>331.8898480104192</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -25915,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>16.14213605696597</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26043,7 +26043,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>105.0742887270138</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>532640.5770708444</v>
+        <v>469902.7171790038</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>645195.1426368594</v>
+        <v>469902.7171790038</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>797085.5717721588</v>
+        <v>532640.5770708442</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>878081.8178860205</v>
+        <v>878081.8178860208</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>878081.8178860203</v>
+        <v>878081.8178860206</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>878081.8178860205</v>
+        <v>878081.8178860206</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>878081.8178860205</v>
+        <v>878081.8178860204</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>878081.8178860206</v>
+        <v>878081.8178860203</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>878081.8178860205</v>
+        <v>878081.8178860206</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>878081.8178860206</v>
+        <v>878081.8178860204</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>878081.8178860206</v>
+        <v>878081.8178860204</v>
       </c>
     </row>
     <row r="15">
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>171419.5356187815</v>
+      </c>
+      <c r="C2" t="n">
+        <v>171419.5356187815</v>
+      </c>
+      <c r="D2" t="n">
         <v>193768.2521372568</v>
       </c>
-      <c r="C2" t="n">
-        <v>235088.7454978048</v>
-      </c>
-      <c r="D2" t="n">
-        <v>290673.0489695932</v>
-      </c>
       <c r="E2" t="n">
+        <v>323947.2440223746</v>
+      </c>
+      <c r="F2" t="n">
+        <v>323947.2440223744</v>
+      </c>
+      <c r="G2" t="n">
         <v>323947.2440223745</v>
       </c>
-      <c r="F2" t="n">
-        <v>323947.2440223745</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>323947.2440223744</v>
-      </c>
-      <c r="H2" t="n">
-        <v>323947.2440223746</v>
       </c>
       <c r="I2" t="n">
         <v>323947.2440223744</v>
       </c>
       <c r="J2" t="n">
-        <v>323947.2440223744</v>
+        <v>323947.2440223747</v>
       </c>
       <c r="K2" t="n">
-        <v>323947.2440223743</v>
+        <v>323947.2440223747</v>
       </c>
       <c r="L2" t="n">
         <v>323947.2440223744</v>
       </c>
       <c r="M2" t="n">
-        <v>323947.2440223744</v>
+        <v>323947.2440223746</v>
       </c>
       <c r="N2" t="n">
         <v>323947.2440223745</v>
       </c>
       <c r="O2" t="n">
-        <v>323947.2440223743</v>
+        <v>323947.2440223744</v>
       </c>
       <c r="P2" t="n">
         <v>323947.2440223744</v>
@@ -26365,46 +26365,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911931</v>
+        <v>591356.9025208453</v>
       </c>
       <c r="C3" t="n">
-        <v>176672.6241739511</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>223886.3093819066</v>
+        <v>79834.34398878372</v>
       </c>
       <c r="E3" t="n">
-        <v>182072.9798171902</v>
+        <v>551695.2512473338</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.246394276677165e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>3.42310613632435e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911409</v>
+        <v>49064.94472854471</v>
       </c>
       <c r="K3" t="n">
-        <v>41076.98154640821</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>54988.291219468</v>
+        <v>19282.57122195014</v>
       </c>
       <c r="M3" t="n">
-        <v>47552.2657934148</v>
+        <v>141470.0145401777</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.094354047381785e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>12754.47490881741</v>
+        <v>9939.2083519468</v>
       </c>
       <c r="C4" t="n">
-        <v>14520.08689902887</v>
+        <v>9939.208351946796</v>
       </c>
       <c r="D4" t="n">
-        <v>17379.72927547096</v>
+        <v>12754.4749088174</v>
       </c>
       <c r="E4" t="n">
-        <v>9160.459137079182</v>
+        <v>9160.459137079168</v>
       </c>
       <c r="F4" t="n">
-        <v>9160.459137079182</v>
+        <v>9160.459137079168</v>
       </c>
       <c r="G4" t="n">
         <v>9160.459137079168</v>
       </c>
       <c r="H4" t="n">
-        <v>9160.459137079168</v>
+        <v>9160.45913707919</v>
       </c>
       <c r="I4" t="n">
         <v>9160.459137079168</v>
@@ -26469,46 +26469,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.8032042662</v>
+        <v>56985.80041161356</v>
       </c>
       <c r="C5" t="n">
-        <v>75746.87167923123</v>
+        <v>56985.80041161357</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984473</v>
+        <v>63047.80320426619</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.34056139327</v>
+        <v>74306.34056139331</v>
       </c>
       <c r="F5" t="n">
-        <v>74306.34056139327</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="G5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="H5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139327</v>
       </c>
       <c r="I5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="J5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="K5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="L5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="M5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="N5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="O5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="P5" t="n">
         <v>74306.34056139328</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-572449.7217537713</v>
+        <v>-488012.7720080807</v>
       </c>
       <c r="C6" t="n">
-        <v>-40003.78963270801</v>
+        <v>103344.1305127645</v>
       </c>
       <c r="D6" t="n">
-        <v>-48758.2248495208</v>
+        <v>37098.85851671436</v>
       </c>
       <c r="E6" t="n">
-        <v>54931.27520865081</v>
+        <v>-311562.4258532379</v>
       </c>
       <c r="F6" t="n">
-        <v>237004.255025841</v>
+        <v>240132.8253940961</v>
       </c>
       <c r="G6" t="n">
-        <v>237004.2550258408</v>
+        <v>240132.8253940959</v>
       </c>
       <c r="H6" t="n">
-        <v>237004.255025841</v>
+        <v>240132.8253940962</v>
       </c>
       <c r="I6" t="n">
-        <v>237004.2550258409</v>
+        <v>240132.8253940954</v>
       </c>
       <c r="J6" t="n">
-        <v>168005.1006067269</v>
+        <v>191067.8806655513</v>
       </c>
       <c r="K6" t="n">
-        <v>195927.2734794326</v>
+        <v>240132.8253940961</v>
       </c>
       <c r="L6" t="n">
-        <v>182015.963806373</v>
+        <v>220850.2541721457</v>
       </c>
       <c r="M6" t="n">
-        <v>189451.9892324261</v>
+        <v>98662.81085391833</v>
       </c>
       <c r="N6" t="n">
-        <v>237004.255025841</v>
+        <v>240132.825394096</v>
       </c>
       <c r="O6" t="n">
-        <v>237004.2550258406</v>
+        <v>240132.8253940958</v>
       </c>
       <c r="P6" t="n">
-        <v>237004.2550258409</v>
+        <v>240132.8253940958</v>
       </c>
     </row>
   </sheetData>
@@ -26737,16 +26737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>548.4699409129045</v>
       </c>
       <c r="C3" t="n">
-        <v>751.4467899908069</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175394</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="F3" t="n">
         <v>1089.776700593298</v>
@@ -26789,49 +26789,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015062</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="C4" t="n">
-        <v>423.3179548919677</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="E4" t="n">
+        <v>831.401455402293</v>
+      </c>
+      <c r="F4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="G4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="H4" t="n">
         <v>831.4014554022924</v>
       </c>
-      <c r="F4" t="n">
+      <c r="I4" t="n">
         <v>831.4014554022924</v>
-      </c>
-      <c r="G4" t="n">
-        <v>831.4014554022929</v>
-      </c>
-      <c r="H4" t="n">
-        <v>831.4014554022929</v>
-      </c>
-      <c r="I4" t="n">
-        <v>831.4014554022929</v>
       </c>
       <c r="J4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="L4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
     </row>
   </sheetData>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>548.4699409129045</v>
       </c>
       <c r="C3" t="n">
-        <v>137.3917762213287</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>182.6181021267325</v>
+        <v>65.58507285657379</v>
       </c>
       <c r="E3" t="n">
-        <v>155.7118084757586</v>
+        <v>475.7216868238202</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015062</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="C4" t="n">
-        <v>159.6040748904614</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>217.2668772080712</v>
+        <v>76.18829283518633</v>
       </c>
       <c r="E4" t="n">
-        <v>190.8166233022536</v>
+        <v>567.6875754007868</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,22 +27035,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015062</v>
+        <v>187.5255871663203</v>
       </c>
       <c r="K4" t="n">
-        <v>159.6040748904612</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>217.2668772080714</v>
+        <v>76.18829283518633</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022536</v>
+        <v>567.6875754007868</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015062</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="K4" t="n">
-        <v>159.6040748904614</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>217.2668772080712</v>
+        <v>76.18829283518633</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022536</v>
+        <v>567.6875754007868</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425036</v>
+        <v>2.204904285077001</v>
       </c>
       <c r="H2" t="n">
-        <v>25.28116948649916</v>
+        <v>22.58097600954484</v>
       </c>
       <c r="I2" t="n">
-        <v>95.1692700235088</v>
+        <v>85.00457245043117</v>
       </c>
       <c r="J2" t="n">
-        <v>209.5161878388634</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016252</v>
+        <v>280.4720934528638</v>
       </c>
       <c r="L2" t="n">
-        <v>389.5577350167918</v>
+        <v>347.9504329672891</v>
       </c>
       <c r="M2" t="n">
-        <v>433.4580399459292</v>
+        <v>387.1618995470272</v>
       </c>
       <c r="N2" t="n">
-        <v>440.4718441986831</v>
+        <v>393.4265838470023</v>
       </c>
       <c r="O2" t="n">
-        <v>415.9250721658379</v>
+        <v>371.5015668622679</v>
       </c>
       <c r="P2" t="n">
-        <v>354.9824263269073</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q2" t="n">
-        <v>266.5770185656231</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R2" t="n">
-        <v>155.0658623465206</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702307</v>
+        <v>50.24425639619221</v>
       </c>
       <c r="T2" t="n">
-        <v>10.8061339609081</v>
+        <v>9.651968507924577</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1974850295540029</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.32079757678718</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H3" t="n">
-        <v>12.75612396528671</v>
+        <v>11.39368688575675</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990948</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7864061472484</v>
+        <v>111.4584056340083</v>
       </c>
       <c r="K3" t="n">
-        <v>213.2798437919895</v>
+        <v>190.5001680621736</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458304</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M3" t="n">
-        <v>334.6599825043656</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N3" t="n">
-        <v>343.517436429399</v>
+        <v>306.8275379829653</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542725</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480712</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q3" t="n">
-        <v>168.5986520825179</v>
+        <v>150.5912184936714</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736545</v>
+        <v>73.24660833550074</v>
       </c>
       <c r="S3" t="n">
-        <v>24.53323569163905</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944814</v>
+        <v>4.755130902820368</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.07761367088390161</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.107312319912174</v>
+        <v>0.9890441557445817</v>
       </c>
       <c r="H4" t="n">
-        <v>9.845013171582789</v>
+        <v>8.793501675620014</v>
       </c>
       <c r="I4" t="n">
-        <v>33.29990140244975</v>
+        <v>29.74325515639161</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779068</v>
+        <v>69.92542181114192</v>
       </c>
       <c r="K4" t="n">
-        <v>128.6495586225234</v>
+        <v>114.9089482765068</v>
       </c>
       <c r="L4" t="n">
-        <v>164.6271425440336</v>
+        <v>147.043892027699</v>
       </c>
       <c r="M4" t="n">
-        <v>173.576239384051</v>
+        <v>155.0371670682165</v>
       </c>
       <c r="N4" t="n">
-        <v>169.4489843734694</v>
+        <v>151.3507297604414</v>
       </c>
       <c r="O4" t="n">
-        <v>156.513563181768</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P4" t="n">
-        <v>133.9243918555596</v>
+        <v>119.6203949820537</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919121</v>
+        <v>82.81896107784857</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350555</v>
+        <v>44.47102176647909</v>
       </c>
       <c r="S4" t="n">
-        <v>19.29743379337851</v>
+        <v>17.23634224147602</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715651</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.05394786304061361</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.020891618053493</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H5" t="n">
-        <v>30.93770628339034</v>
+        <v>22.58097600954485</v>
       </c>
       <c r="I5" t="n">
-        <v>116.4629241050074</v>
+        <v>85.00457245043118</v>
       </c>
       <c r="J5" t="n">
-        <v>256.3943999677679</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K5" t="n">
-        <v>384.2687421599723</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L5" t="n">
-        <v>476.719354015977</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M5" t="n">
-        <v>530.4421353285358</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N5" t="n">
-        <v>539.0252436383303</v>
+        <v>393.4265838470024</v>
       </c>
       <c r="O5" t="n">
-        <v>508.9862526113108</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P5" t="n">
-        <v>434.4079907906151</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q5" t="n">
-        <v>326.2223097190744</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R5" t="n">
-        <v>189.7610831025529</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S5" t="n">
-        <v>68.83856774639403</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T5" t="n">
-        <v>13.22395305802917</v>
+        <v>9.651968507924579</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2416713294442794</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.616319510546264</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H6" t="n">
-        <v>15.61024369395997</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I6" t="n">
-        <v>55.64959718328146</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J6" t="n">
-        <v>152.7067481433205</v>
+        <v>111.4584056340083</v>
       </c>
       <c r="K6" t="n">
-        <v>261.0001553499202</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L6" t="n">
-        <v>350.9469182876878</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M6" t="n">
-        <v>409.5385005449897</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N6" t="n">
-        <v>420.3777660345742</v>
+        <v>306.8275379829654</v>
       </c>
       <c r="O6" t="n">
-        <v>384.5635284587859</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P6" t="n">
-        <v>308.6461353077335</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q6" t="n">
-        <v>206.3217676970986</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R6" t="n">
-        <v>100.3535920670742</v>
+        <v>73.24660833550075</v>
       </c>
       <c r="S6" t="n">
-        <v>30.0224259963308</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T6" t="n">
-        <v>6.514901886807087</v>
+        <v>4.755130902820369</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1063368099043595</v>
+        <v>0.07761367088390163</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.355067981950635</v>
+        <v>0.9890441557445819</v>
       </c>
       <c r="H7" t="n">
-        <v>12.04778623952475</v>
+        <v>8.793501675620016</v>
       </c>
       <c r="I7" t="n">
-        <v>40.75058985720639</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J7" t="n">
-        <v>95.80330632390991</v>
+        <v>69.92542181114193</v>
       </c>
       <c r="K7" t="n">
-        <v>157.4342619029919</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L7" t="n">
-        <v>201.4616525165518</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M7" t="n">
-        <v>212.41306557068</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N7" t="n">
-        <v>207.3623576379551</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O7" t="n">
-        <v>191.5326998488044</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P7" t="n">
-        <v>163.8893130170113</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q7" t="n">
-        <v>113.4684652886118</v>
+        <v>82.81896107784858</v>
       </c>
       <c r="R7" t="n">
-        <v>60.92878398843492</v>
+        <v>44.4710217664791</v>
       </c>
       <c r="S7" t="n">
-        <v>23.61513928544879</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T7" t="n">
-        <v>5.789835922879986</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07391279901548928</v>
+        <v>0.05394786304061362</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75503474218106</v>
+        <v>2.468562869425037</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>25.28116948649916</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979355</v>
+        <v>95.16927002350883</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>209.5161878388634</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857144</v>
+        <v>314.0104541016253</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767381</v>
+        <v>389.5577350167918</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730006</v>
+        <v>433.4580399459293</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342226</v>
+        <v>440.4718441986832</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166596</v>
+        <v>415.925072165838</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190646</v>
+        <v>354.9824263269073</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>266.5770185656231</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>155.0658623465206</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745099</v>
+        <v>56.25237638702308</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>10.8061339609081</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.1974850295540029</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.009120711347161</v>
+        <v>1.32079757678718</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>12.75612396528671</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436496</v>
+        <v>45.47482884990949</v>
       </c>
       <c r="J9" t="n">
-        <v>189.8178475575841</v>
+        <v>124.7864061472485</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178439</v>
+        <v>213.2798437919895</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177245</v>
+        <v>286.7810703458305</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040589</v>
+        <v>334.6599825043656</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762073</v>
+        <v>343.517436429399</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405676</v>
+        <v>314.2513427542726</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>252.2144074480713</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>168.5986520825179</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>82.00530919736546</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997903</v>
+        <v>24.53323569163905</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000174</v>
+        <v>5.323741109944815</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.08689457742020924</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.684379313654579</v>
+        <v>1.107312319912174</v>
       </c>
       <c r="H10" t="n">
-        <v>14.97566335231072</v>
+        <v>9.84501317158279</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335773</v>
+        <v>33.29990140244975</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0856174753787</v>
+        <v>78.28698101779069</v>
       </c>
       <c r="K10" t="n">
-        <v>195.694251168232</v>
+        <v>128.6495586225235</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227908</v>
+        <v>164.6271425440336</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849628</v>
+        <v>173.576239384051</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>169.4489843734694</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>156.5135631817681</v>
       </c>
       <c r="P10" t="n">
-        <v>203.7180217169137</v>
+        <v>133.9243918555596</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.0437987097484</v>
+        <v>92.72230707919122</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759588</v>
+        <v>49.78878849350556</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>19.29743379337852</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069563</v>
+        <v>4.731243548715652</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024988</v>
+        <v>0.06039885381339138</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T11" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752255</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742017</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32074,40 +32074,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32162,16 +32162,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32180,16 +32180,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H21" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q22" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32788,7 +32788,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
@@ -33499,7 +33499,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
@@ -33973,7 +33973,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
@@ -33994,7 +33994,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I44" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
@@ -34444,40 +34444,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34517,13 +34517,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
@@ -34532,16 +34532,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
         <v>237.6785118802169</v>
@@ -34550,16 +34550,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217709</v>
+        <v>6.092590538868023</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664467</v>
+        <v>60.38224240788327</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468045</v>
+        <v>112.1840179973019</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186565</v>
+        <v>156.8156663197545</v>
       </c>
       <c r="N2" t="n">
-        <v>211.0587806020922</v>
+        <v>164.0135202504114</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441512</v>
+        <v>141.4033554405811</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716377</v>
+        <v>85.83499656915984</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117358</v>
+        <v>15.7991677406597</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.43840481763047</v>
+        <v>52.65872908781463</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659562</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M3" t="n">
-        <v>192.5259485823473</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N3" t="n">
-        <v>212.1757243460657</v>
+        <v>175.485825899632</v>
       </c>
       <c r="O3" t="n">
-        <v>171.6550983098281</v>
+        <v>138.0910091848228</v>
       </c>
       <c r="P3" t="n">
-        <v>118.240000033741</v>
+        <v>91.30185944855691</v>
       </c>
       <c r="Q3" t="n">
-        <v>125.938547087769</v>
+        <v>10.60944440764993</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,25 +34859,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>106.3800667966406</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>192.2171678043497</v>
+        <v>86.19340501175004</v>
       </c>
       <c r="M4" t="n">
-        <v>213.1601163458916</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="N4" t="n">
-        <v>213.581156752698</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="O4" t="n">
-        <v>181.0986910958077</v>
+        <v>164.382023673283</v>
       </c>
       <c r="P4" t="n">
-        <v>131.2029511204531</v>
+        <v>116.8989542469472</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.560263827496826</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>75.34849544108158</v>
+        <v>6.092590538868052</v>
       </c>
       <c r="K5" t="n">
-        <v>164.1788911149918</v>
+        <v>60.38224240788333</v>
       </c>
       <c r="L5" t="n">
-        <v>240.9529390459898</v>
+        <v>112.184017997302</v>
       </c>
       <c r="M5" t="n">
-        <v>300.0959021012631</v>
+        <v>156.8156663197546</v>
       </c>
       <c r="N5" t="n">
-        <v>309.6121800417394</v>
+        <v>164.0135202504115</v>
       </c>
       <c r="O5" t="n">
-        <v>278.8880411896241</v>
+        <v>141.4033554405812</v>
       </c>
       <c r="P5" t="n">
-        <v>203.1749950353456</v>
+        <v>85.8349965691599</v>
       </c>
       <c r="Q5" t="n">
-        <v>103.9166198446249</v>
+        <v>15.79916774065975</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>25.86912147665382</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>123.1587163755612</v>
+        <v>52.65872908781469</v>
       </c>
       <c r="L6" t="n">
-        <v>212.3925385078136</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M6" t="n">
-        <v>267.4044666229714</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N6" t="n">
-        <v>289.0360539512409</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O6" t="n">
-        <v>241.9672840143414</v>
+        <v>138.0910091848229</v>
       </c>
       <c r="P6" t="n">
-        <v>423.3179548919677</v>
+        <v>91.30185944855694</v>
       </c>
       <c r="Q6" t="n">
-        <v>92.82617005967886</v>
+        <v>10.60944440764996</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1957579144310841</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>2.444126207237133</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>135.1647700771091</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>229.0516777768679</v>
+        <v>174.6339172880152</v>
       </c>
       <c r="M7" t="n">
-        <v>251.9969425325206</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="N7" t="n">
-        <v>251.4945300171837</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="O7" t="n">
-        <v>216.1178277628441</v>
+        <v>164.382023673283</v>
       </c>
       <c r="P7" t="n">
-        <v>161.1678722819048</v>
+        <v>28.45844197068201</v>
       </c>
       <c r="Q7" t="n">
-        <v>27.30642203691745</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>28.47028331217712</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407339</v>
+        <v>93.92060305664472</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067509</v>
+        <v>153.7913200468046</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457279</v>
+        <v>203.1118067186566</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376316</v>
+        <v>211.0587806020923</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949728</v>
+        <v>185.8268607441513</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637951</v>
+        <v>123.7494305716378</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>44.27132869117364</v>
       </c>
       <c r="R8" t="n">
-        <v>20.2916633093991</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313263</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>451.0527332560635</v>
+        <v>172.7600739089027</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378503</v>
+        <v>148.2266905659563</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820406</v>
+        <v>192.5259485823473</v>
       </c>
       <c r="N9" t="n">
-        <v>391.197099592874</v>
+        <v>212.1757243460657</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961231</v>
+        <v>171.6550983098281</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>118.240000033741</v>
       </c>
       <c r="Q9" t="n">
-        <v>255.4201198419603</v>
+        <v>28.61687799649641</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870597</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>106.3800667966406</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>192.2171678043497</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468034</v>
+        <v>213.1601163458916</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>213.581156752698</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>181.0986910958077</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818072</v>
+        <v>131.2029511204531</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805406</v>
+        <v>6.56026382749684</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193716</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M13" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
         <v>319.7573721701981</v>
@@ -35819,13 +35819,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L22" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M22" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N22" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P22" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597691</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597691</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597691</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
@@ -37642,7 +37642,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K46" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L46" t="n">
         <v>319.7573721701981</v>
@@ -38189,13 +38189,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O46" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P46" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
